--- a/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,32%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,51; 2,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 7,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 5,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-86,39; 365,66</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,41; 227,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,16; 179,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,35%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 3,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 0,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 4,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,12; 222,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,48; 26,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,88; 209,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,79; 186,58</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,24; 562,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,02; 302,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,14; 195,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,03; 175,59</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,4%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 2,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 1,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,12; 371,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,1; 159,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,7; 272,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,01; 602,54</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 3,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,87; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 3,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,94; 136,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,38; 412,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,24; 153,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,57; 232,12</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>261,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,26%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-1,09; 3,41</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 5,65</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 7,37</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 1,13</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,54; 387,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 1196,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,08; 168,73</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 1,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,9; 56,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,39; 37,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,76; 398,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,92; 164,62</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,22%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 0,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 1,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 3,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,84; 17,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,29; 144,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,7; 69,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,08; 139,69</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 39,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 41,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 68,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 65,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>-2,5%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,32</t>
+          <t>-7,26; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,71; 244,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 179,69</t>
+          <t>-62,98; 145,34</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>58,1%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,6</t>
+          <t>-1,05; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 186,58</t>
+          <t>-22,09; 195,99</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>-16,65%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,45</t>
+          <t>-2,79; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,03; 175,59</t>
+          <t>-77,21; 173,86</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-20,64%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,61</t>
+          <t>-1,99; 4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,85</t>
+          <t>-4,54; 1,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 159,34</t>
+          <t>-47,47; 283,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 602,54</t>
+          <t>-89,97; 506,66</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,3</t>
+          <t>-3,76; 2,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 232,12</t>
+          <t>-74,96; 204,97</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>-29,14%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,13</t>
+          <t>-3,62; 1,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,08; 168,73</t>
+          <t>-91,07; 170,47</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>24,14%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,14</t>
+          <t>-2,7; 3,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 164,62</t>
+          <t>-51,99; 130,18</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>65,27%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,53</t>
+          <t>-0,18; 4,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 139,69</t>
+          <t>-5,13; 330,71</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,8</t>
+          <t>-0,57; 1,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 65,47</t>
+          <t>-14,72; 70,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,44</t>
+          <t>-2,51; 2,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,7</t>
+          <t>-2,83; 5,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 7,07</t>
+          <t>-1,6; 7,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 4,93</t>
+          <t>-8,11; 4,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-86,39; 365,66</t>
+          <t>-86,0; 507,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 244,84</t>
+          <t>-54,36; 279,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 227,3</t>
+          <t>-27,23; 218,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,98; 145,34</t>
+          <t>-62,02; 171,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,86</t>
+          <t>-1,48; 4,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,63</t>
+          <t>-4,64; 0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,49</t>
+          <t>-1,75; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,62</t>
+          <t>-0,66; 4,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 222,93</t>
+          <t>-38,18; 211,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,48; 26,11</t>
+          <t>-78,16; 20,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 209,58</t>
+          <t>-56,52; 225,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 195,99</t>
+          <t>-15,92; 222,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,62</t>
+          <t>-1,87; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,16</t>
+          <t>-1,27; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,19</t>
+          <t>-2,79; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,45</t>
+          <t>-2,67; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,24; 562,43</t>
+          <t>-74,63; 424,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 302,65</t>
+          <t>-35,33; 328,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,14; 195,3</t>
+          <t>-64,76; 202,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 173,86</t>
+          <t>-74,7; 183,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,23</t>
+          <t>-0,37; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,54</t>
+          <t>-2,0; 4,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,87</t>
+          <t>-2,48; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,48</t>
+          <t>-4,74; 1,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 371,04</t>
+          <t>-14,08; 388,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 283,83</t>
+          <t>-46,78; 249,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 272,61</t>
+          <t>-60,95; 226,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,97; 506,66</t>
+          <t>-94,12; 391,87</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 3,42</t>
+          <t>-5,15; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,84</t>
+          <t>-2,85; 3,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,84</t>
+          <t>-6,47; 3,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,81</t>
+          <t>-3,14; 3,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-78,94; 136,09</t>
+          <t>-75,87; 144,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,38; 412,0</t>
+          <t>-76,57; 349,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-84,24; 153,62</t>
+          <t>-80,46; 179,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 204,97</t>
+          <t>-71,09; 276,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,41</t>
+          <t>-1,51; 3,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,65</t>
+          <t>-1,38; 5,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,37</t>
+          <t>1,41; 8,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,12</t>
+          <t>-3,37; 1,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 387,15</t>
+          <t>-42,99; 362,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1196,15</t>
+          <t>9,64; 1370,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 170,47</t>
+          <t>-94,23; 163,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,2</t>
+          <t>-3,21; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,89</t>
+          <t>-3,55; 0,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,75</t>
+          <t>-0,96; 2,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,55</t>
+          <t>-2,35; 3,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 56,88</t>
+          <t>-63,06; 55,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 37,69</t>
+          <t>-64,52; 44,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 398,7</t>
+          <t>-50,4; 406,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,99; 130,18</t>
+          <t>-49,3; 127,07</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,69</t>
+          <t>-4,2; 0,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,95</t>
+          <t>-1,17; 3,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,67</t>
+          <t>-2,05; 1,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,58</t>
+          <t>-0,31; 4,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 17,27</t>
+          <t>-62,49; 18,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 144,83</t>
+          <t>-30,48; 151,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 69,93</t>
+          <t>-46,76; 82,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 330,71</t>
+          <t>-8,52; 354,99</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,15</t>
+          <t>-1,06; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,16</t>
+          <t>-0,74; 1,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,6</t>
+          <t>-0,19; 1,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,78</t>
+          <t>-0,55; 1,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 39,46</t>
+          <t>-26,78; 33,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 41,88</t>
+          <t>-18,83; 43,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 68,69</t>
+          <t>-5,96; 67,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 70,5</t>
+          <t>-13,3; 70,99</t>
         </is>
       </c>
     </row>
